--- a/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 12,17</t>
+          <t>-20,35; 11,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 10,2</t>
+          <t>-14,45; 21,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 71,01</t>
+          <t>-51,08; 62,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 55,82</t>
+          <t>-39,53; 159,73</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>65,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>66,07%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 19,52</t>
+          <t>5,34; 19,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 15,35</t>
+          <t>4,91; 18,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,15; 118,19</t>
+          <t>23,18; 124,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,97; 98,76</t>
+          <t>22,56; 122,03</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>84,23%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 13,6</t>
+          <t>4,85; 21,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,23</t>
+          <t>5,43; 19,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 87,14</t>
+          <t>22,73; 176,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 116,11</t>
+          <t>25,72; 177,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>28,41%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,06</t>
+          <t>6,58; 15,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,03</t>
+          <t>-0,71; 9,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,86; 80,71</t>
+          <t>30,67; 93,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 75,31</t>
+          <t>-3,24; 65,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 14,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 12,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35,74; 82,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 82,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,33%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,13%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.207781341541553</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.452091596086988</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.04327727028862978</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3440673139414226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,35; 11,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 21,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-51,08; 62,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-39,53; 159,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.35072477003989</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.85038280691503</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5107812559626106</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3849982321573023</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.89082819153316</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.00638530052239</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.6208046868079287</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.463175673912613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>65,57%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>66,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 19,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 18,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>23,18; 124,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>22,56; 122,03</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.0170339423634</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.1727277239608</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6557296185251646</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.7378411477840134</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>86,54%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>84,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.337991932289272</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.359190069971313</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.2317534814603933</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.2899641916150132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 21,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 19,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>22,73; 176,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>25,72; 177,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.88336297419994</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.8395724126761</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.244798117098032</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.34260793118843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>58,4%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>13.14914390889567</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.56142204435455</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.8654133158245532</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.7640680848463237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 15,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 9,83</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>30,67; 93,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 65,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.849019910561516</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4.281556331507882</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.2273372798181812</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.1819492394787998</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.05356178755247</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.20485327312453</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.763417815748223</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.721964337696589</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>56,64%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>50,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 14,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 12,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>35,74; 82,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 82,03</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.57517093622884</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.66863166293427</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.5387765894926335</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6676439233121224</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.258993713396745</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.203428962959098</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.2291237125288962</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.2909804203684618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.1295194829468</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.30753762376072</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9607756496313627</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.0666571258519</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
